--- a/autoflpy/user_files/checklists/Checklists nominal.xlsx
+++ b/autoflpy/user_files/checklists/Checklists nominal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{04A4321F-399C-4E7D-8518-F249BA7EABCA}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{285ED05A-C383-43E9-939F-AA48B9312B05}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -88,9 +88,6 @@
     <t>THIS IS A TEST</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Attached properly (left prop, right prop) ;</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -172,8 +172,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,10 +222,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -534,14 +534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -594,17 +593,17 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>43466.647037037037</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43466.647893518515</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -616,11 +615,11 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -631,22 +630,22 @@
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>43759.647974537002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43759.648449074099</v>
+      <c r="B3" s="3">
+        <v>43466.647974537038</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43466.648449074077</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -666,24 +665,24 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>43759.648472222201</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43759.648877314801</v>
+      <c r="B4" s="3">
+        <v>43466.648472222223</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43466.648877314816</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -692,42 +691,42 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>43772.654942129629</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>43802.65520833333</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -737,11 +736,11 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1"/>
@@ -750,23 +749,23 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>43772.655219907407</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43802.655416666668</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -787,23 +786,23 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>43772.655428240738</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>43802.655821759261</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -813,49 +812,47 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,28 +1059,54 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A07314-A218-4DF1-BCBF-9D26657E292F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097F2E4-7E29-4DBF-8D28-2AAE2A62041F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9490256D-FE71-47F1-BF3D-91D2AB4FCEA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097F2E4-7E29-4DBF-8D28-2AAE2A62041F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A07314-A218-4DF1-BCBF-9D26657E292F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>